--- a/Data/Bus/route28.xlsx
+++ b/Data/Bus/route28.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/Downloads/Bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/Documents/GitHub/MultiModal_Project/Data/Bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E629353-47B7-194E-90A6-BF886905AC73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A40FA1-AEB0-5344-8AC0-A51BAEABE965}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="-21140" windowWidth="19000" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4820" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekday" sheetId="7" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Chattanooga State</t>
   </si>
   <si>
-    <t>G-5:53</t>
-  </si>
-  <si>
     <t>G 11:00</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>G 11:15</t>
+  </si>
+  <si>
+    <t>G 5:53</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>0.25208333333333333</v>
@@ -668,12 +668,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8">
         <v>0.46527777777777773</v>
@@ -753,12 +753,12 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6">
         <v>0.63888888888888895</v>
@@ -821,7 +821,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
